--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mdk-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mdk-Notch2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H2">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I2">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J2">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N2">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O2">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P2">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q2">
-        <v>92.41334117670844</v>
+        <v>0.5226091530683333</v>
       </c>
       <c r="R2">
-        <v>831.7200705903759</v>
+        <v>4.703482377615</v>
       </c>
       <c r="S2">
-        <v>0.04741820414326695</v>
+        <v>0.0006990870529581601</v>
       </c>
       <c r="T2">
-        <v>0.04741820414326695</v>
+        <v>0.0006990870529581601</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H3">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I3">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J3">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q3">
-        <v>76.18556736265998</v>
+        <v>14.18698655115</v>
       </c>
       <c r="R3">
-        <v>685.6701062639399</v>
+        <v>127.68287896035</v>
       </c>
       <c r="S3">
-        <v>0.03909157206063372</v>
+        <v>0.01897773615362548</v>
       </c>
       <c r="T3">
-        <v>0.03909157206063372</v>
+        <v>0.01897773615362548</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H4">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I4">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J4">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N4">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O4">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P4">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q4">
-        <v>67.91774349402665</v>
+        <v>10.49517950995167</v>
       </c>
       <c r="R4">
-        <v>611.2596914462399</v>
+        <v>94.45661558956499</v>
       </c>
       <c r="S4">
-        <v>0.03484926943385411</v>
+        <v>0.01403925681515882</v>
       </c>
       <c r="T4">
-        <v>0.03484926943385411</v>
+        <v>0.01403925681515882</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>36.121289</v>
       </c>
       <c r="I5">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J5">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N5">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O5">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P5">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q5">
-        <v>384.8156800599418</v>
+        <v>11.68631661669345</v>
       </c>
       <c r="R5">
-        <v>3463.341120539475</v>
+        <v>105.176849550241</v>
       </c>
       <c r="S5">
-        <v>0.1974527513264654</v>
+        <v>0.01563262448721783</v>
       </c>
       <c r="T5">
-        <v>0.1974527513264654</v>
+        <v>0.01563262448721783</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>36.121289</v>
       </c>
       <c r="I6">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J6">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O6">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P6">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q6">
-        <v>317.2420836874099</v>
+        <v>317.24208368741</v>
       </c>
       <c r="R6">
-        <v>2855.178753186689</v>
+        <v>2855.17875318669</v>
       </c>
       <c r="S6">
-        <v>0.1627800672022059</v>
+        <v>0.4243703579572377</v>
       </c>
       <c r="T6">
-        <v>0.1627800672022059</v>
+        <v>0.4243703579572377</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>36.121289</v>
       </c>
       <c r="I7">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J7">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N7">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O7">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P7">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q7">
-        <v>282.8142811200266</v>
+        <v>234.6877967640412</v>
       </c>
       <c r="R7">
-        <v>2545.328530080239</v>
+        <v>2112.190170876371</v>
       </c>
       <c r="S7">
-        <v>0.1451148194191756</v>
+        <v>0.3139386274460538</v>
       </c>
       <c r="T7">
-        <v>0.1451148194191756</v>
+        <v>0.3139386274460537</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H8">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I8">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J8">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N8">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O8">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P8">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q8">
-        <v>284.2580248345053</v>
+        <v>3.291368236282778</v>
       </c>
       <c r="R8">
-        <v>2558.322223510548</v>
+        <v>29.622314126545</v>
       </c>
       <c r="S8">
-        <v>0.145855618672963</v>
+        <v>0.004402817874493226</v>
       </c>
       <c r="T8">
-        <v>0.145855618672963</v>
+        <v>0.004402817874493225</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H9">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I9">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J9">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O9">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P9">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q9">
-        <v>234.3423430389299</v>
+        <v>89.34898409044997</v>
       </c>
       <c r="R9">
-        <v>2109.08108735037</v>
+        <v>804.1408568140498</v>
       </c>
       <c r="S9">
-        <v>0.1202433860754309</v>
+        <v>0.1195209031565334</v>
       </c>
       <c r="T9">
-        <v>0.1202433860754309</v>
+        <v>0.1195209031565334</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H10">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I10">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J10">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N10">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O10">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P10">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q10">
-        <v>208.9110010632799</v>
+        <v>66.09815436704388</v>
       </c>
       <c r="R10">
-        <v>1880.19900956952</v>
+        <v>594.8833893033949</v>
       </c>
       <c r="S10">
-        <v>0.1071943116660042</v>
+        <v>0.08841858905672154</v>
       </c>
       <c r="T10">
-        <v>0.1071943116660042</v>
+        <v>0.08841858905672151</v>
       </c>
     </row>
   </sheetData>
